--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0830569457265</v>
+        <v>23.76874</v>
       </c>
       <c r="H2">
-        <v>17.0830569457265</v>
+        <v>71.30622000000001</v>
       </c>
       <c r="I2">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834226</v>
       </c>
       <c r="J2">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834227</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.164965513956626</v>
+        <v>83.95844533333333</v>
       </c>
       <c r="N2">
-        <v>0.164965513956626</v>
+        <v>251.875336</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="Q2">
-        <v>2.818115269002082</v>
+        <v>1995.586457932214</v>
       </c>
       <c r="R2">
-        <v>2.818115269002082</v>
+        <v>17960.27812138992</v>
       </c>
       <c r="S2">
-        <v>0.9456685238943819</v>
+        <v>0.953613807283986</v>
       </c>
       <c r="T2">
-        <v>0.9456685238943819</v>
+        <v>0.9536138072839861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.732687469089103</v>
+        <v>23.76874</v>
       </c>
       <c r="H3">
-        <v>0.732687469089103</v>
+        <v>71.30622000000001</v>
       </c>
       <c r="I3">
-        <v>0.04055945487805292</v>
+        <v>0.9555483638834226</v>
       </c>
       <c r="J3">
-        <v>0.04055945487805292</v>
+        <v>0.9555483638834227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.164965513956626</v>
+        <v>0.170323</v>
       </c>
       <c r="N3">
-        <v>0.164965513956626</v>
+        <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002024551213268089</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00202455121326809</v>
       </c>
       <c r="Q3">
-        <v>0.1208681649078634</v>
+        <v>4.048363103020001</v>
       </c>
       <c r="R3">
-        <v>0.1208681649078634</v>
+        <v>36.43526792718001</v>
       </c>
       <c r="S3">
-        <v>0.04055945487805292</v>
+        <v>0.001934556599436521</v>
       </c>
       <c r="T3">
-        <v>0.04055945487805292</v>
+        <v>0.001934556599436522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7500946666666666</v>
+      </c>
+      <c r="H4">
+        <v>2.250284</v>
+      </c>
+      <c r="I4">
+        <v>0.03015522621270687</v>
+      </c>
+      <c r="J4">
+        <v>0.03015522621270688</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>83.95844533333333</v>
+      </c>
+      <c r="N4">
+        <v>251.875336</v>
+      </c>
+      <c r="O4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="P4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="Q4">
+        <v>62.97678206615821</v>
+      </c>
+      <c r="R4">
+        <v>566.7910385954239</v>
+      </c>
+      <c r="S4">
+        <v>0.03009417541289157</v>
+      </c>
+      <c r="T4">
+        <v>0.03009417541289157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.248785083719806</v>
-      </c>
-      <c r="H4">
-        <v>0.248785083719806</v>
-      </c>
-      <c r="I4">
-        <v>0.01377202122756512</v>
-      </c>
-      <c r="J4">
-        <v>0.01377202122756512</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.164965513956626</v>
-      </c>
-      <c r="N4">
-        <v>0.164965513956626</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.04104095920058003</v>
-      </c>
-      <c r="R4">
-        <v>0.04104095920058003</v>
-      </c>
-      <c r="S4">
-        <v>0.01377202122756512</v>
-      </c>
-      <c r="T4">
-        <v>0.01377202122756512</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7500946666666666</v>
+      </c>
+      <c r="H5">
+        <v>2.250284</v>
+      </c>
+      <c r="I5">
+        <v>0.03015522621270687</v>
+      </c>
+      <c r="J5">
+        <v>0.03015522621270688</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.170323</v>
+      </c>
+      <c r="N5">
+        <v>0.510969</v>
+      </c>
+      <c r="O5">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P5">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q5">
+        <v>0.1277583739106667</v>
+      </c>
+      <c r="R5">
+        <v>1.149825365196</v>
+      </c>
+      <c r="S5">
+        <v>6.105079981530939E-05</v>
+      </c>
+      <c r="T5">
+        <v>6.105079981530941E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3556153333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.066846</v>
+      </c>
+      <c r="I6">
+        <v>0.01429640990387057</v>
+      </c>
+      <c r="J6">
+        <v>0.01429640990387057</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>83.95844533333333</v>
+      </c>
+      <c r="N6">
+        <v>251.875336</v>
+      </c>
+      <c r="O6">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="P6">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="Q6">
+        <v>29.85691052336178</v>
+      </c>
+      <c r="R6">
+        <v>268.712194710256</v>
+      </c>
+      <c r="S6">
+        <v>0.01426746608985431</v>
+      </c>
+      <c r="T6">
+        <v>0.01426746608985431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3556153333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.066846</v>
+      </c>
+      <c r="I7">
+        <v>0.01429640990387057</v>
+      </c>
+      <c r="J7">
+        <v>0.01429640990387057</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.170323</v>
+      </c>
+      <c r="N7">
+        <v>0.510969</v>
+      </c>
+      <c r="O7">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P7">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q7">
+        <v>0.06056947041933333</v>
+      </c>
+      <c r="R7">
+        <v>0.545125233774</v>
+      </c>
+      <c r="S7">
+        <v>2.894381401625909E-05</v>
+      </c>
+      <c r="T7">
+        <v>2.89438140162591E-05</v>
       </c>
     </row>
   </sheetData>
